--- a/Debug/수집 목록.xlsx
+++ b/Debug/수집 목록.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ShuDeltaGraph\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65430CFA-04F2-44EB-908C-AEA9280B03FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F65A4CD9-69A0-467B-8315-D4DA89E366C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="15460" xr2:uid="{1DED8165-BB26-4D92-8978-FB26B49FCDF9}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="15460" xr2:uid="{228EB8E0-BA05-4D69-AFDC-5E336BA737FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>과제 번호</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>100/1002.0</t>
+  </si>
+  <si>
+    <t>협대역IQ</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E3365B-C549-44C9-ACB8-A593E8F4C175}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0DF1E5-0602-48B3-85A1-91215282A323}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -458,7 +461,7 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>-27</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -466,7 +469,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>8000</v>
@@ -475,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>-27</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">

--- a/Debug/수집 목록.xlsx
+++ b/Debug/수집 목록.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ShuDeltaGraph\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F65A4CD9-69A0-467B-8315-D4DA89E366C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA9F7D15-F7E5-4066-925F-675507BD5243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="15460" xr2:uid="{228EB8E0-BA05-4D69-AFDC-5E336BA737FB}"/>
+    <workbookView xWindow="4180" yWindow="4180" windowWidth="28800" windowHeight="15460" xr2:uid="{4A73FDCA-18FA-4735-87A7-089E88103B84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0DF1E5-0602-48B3-85A1-91215282A323}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65355321-DEF2-4FFA-962F-817BD23AE2A0}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
